--- a/Code/Data/S&P500/Compared Returns/Auto Recurrence/input 125/S&P500_returns_compared_trimester.xlsx
+++ b/Code/Data/S&P500/Compared Returns/Auto Recurrence/input 125/S&P500_returns_compared_trimester.xlsx
@@ -501,13 +501,13 @@
         <v>0.02539780777448591</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02318804958900643</v>
+        <v>0.02114123668755364</v>
       </c>
       <c r="H2" t="n">
-        <v>-8.700586306899122</v>
+        <v>-16.75960037467616</v>
       </c>
       <c r="I2" t="n">
-        <v>-19.30603167509359</v>
+        <v>-20.51970313467109</v>
       </c>
     </row>
     <row r="3">
@@ -536,10 +536,10 @@
         <v>0.02850917715789084</v>
       </c>
       <c r="G3" t="n">
-        <v>0.02311148838298648</v>
+        <v>0.02232483822391389</v>
       </c>
       <c r="H3" t="n">
-        <v>-18.93316227617034</v>
+        <v>-21.69244976705767</v>
       </c>
       <c r="I3" t="inlineStr"/>
     </row>
@@ -569,10 +569,10 @@
         <v>0.03688642016201375</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03429543189324684</v>
+        <v>0.03799250200040161</v>
       </c>
       <c r="H4" t="n">
-        <v>-7.0242334642036</v>
+        <v>2.998615299423704</v>
       </c>
       <c r="I4" t="inlineStr"/>
     </row>
@@ -602,10 +602,10 @@
         <v>0.03720152667980871</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03630142613003547</v>
+        <v>0.03943361633612762</v>
       </c>
       <c r="H5" t="n">
-        <v>-2.419525836991438</v>
+        <v>5.999994773145673</v>
       </c>
       <c r="I5" t="inlineStr"/>
     </row>
@@ -635,10 +635,10 @@
         <v>0.006559799104029466</v>
       </c>
       <c r="G6" t="n">
-        <v>0.00889299729670163</v>
+        <v>0.01468724378987546</v>
       </c>
       <c r="H6" t="n">
-        <v>35.56813487228531</v>
+        <v>123.8977681626496</v>
       </c>
       <c r="I6" t="inlineStr"/>
     </row>
@@ -668,10 +668,10 @@
         <v>0.0115941307058423</v>
       </c>
       <c r="G7" t="n">
-        <v>0.01082745879876682</v>
+        <v>0.009487819053755706</v>
       </c>
       <c r="H7" t="n">
-        <v>-6.612586372595865</v>
+        <v>-18.16705111859072</v>
       </c>
       <c r="I7" t="inlineStr"/>
     </row>
@@ -701,10 +701,10 @@
         <v>-0.05022737750499624</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.0463679824863108</v>
+        <v>-0.03793065852637566</v>
       </c>
       <c r="H8" t="n">
-        <v>-7.683847356556771</v>
+        <v>24.48210436110745</v>
       </c>
       <c r="I8" t="inlineStr"/>
     </row>
@@ -734,10 +734,10 @@
         <v>-0.04691588781839836</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.04736230030567484</v>
+        <v>-0.04277489439759159</v>
       </c>
       <c r="H9" t="n">
-        <v>0.9515166567974863</v>
+        <v>8.826420245601428</v>
       </c>
       <c r="I9" t="inlineStr"/>
     </row>
@@ -767,10 +767,10 @@
         <v>-0.04134023671255897</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.03627316708147751</v>
+        <v>-0.04290434191539118</v>
       </c>
       <c r="H10" t="n">
-        <v>-12.2569923010192</v>
+        <v>-3.783493582069978</v>
       </c>
       <c r="I10" t="inlineStr"/>
     </row>
@@ -800,10 +800,10 @@
         <v>-0.04184362476160845</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.03765225761774926</v>
+        <v>-0.04134421861316108</v>
       </c>
       <c r="H11" t="n">
-        <v>-10.01674010733595</v>
+        <v>1.193505943360764</v>
       </c>
       <c r="I11" t="inlineStr"/>
     </row>
@@ -833,10 +833,10 @@
         <v>-0.04913332877268228</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.06347552046794191</v>
+        <v>-0.04607009859565475</v>
       </c>
       <c r="H12" t="n">
-        <v>29.19035215711615</v>
+        <v>6.234526040764943</v>
       </c>
       <c r="I12" t="inlineStr"/>
     </row>
@@ -866,10 +866,10 @@
         <v>-0.05296564739060104</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.04711855509562098</v>
+        <v>-0.05677491730256897</v>
       </c>
       <c r="H13" t="n">
-        <v>-11.03940494082896</v>
+        <v>-7.191963281173636</v>
       </c>
       <c r="I13" t="inlineStr"/>
     </row>
@@ -899,10 +899,10 @@
         <v>-0.0742566594116762</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.07291815191073261</v>
+        <v>-0.0681383231288669</v>
       </c>
       <c r="H14" t="n">
-        <v>-1.802542036698614</v>
+        <v>8.239444557947941</v>
       </c>
       <c r="I14" t="inlineStr"/>
     </row>
@@ -932,10 +932,10 @@
         <v>-0.08994896525467186</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.08543603228224317</v>
+        <v>-0.08527015732422716</v>
       </c>
       <c r="H15" t="n">
-        <v>-5.017214994804283</v>
+        <v>5.201625073949017</v>
       </c>
       <c r="I15" t="inlineStr"/>
     </row>
@@ -965,10 +965,10 @@
         <v>-0.2928831391059319</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.284549792000753</v>
+        <v>-0.2863969169436861</v>
       </c>
       <c r="H16" t="n">
-        <v>-2.845280588912581</v>
+        <v>2.214610981719857</v>
       </c>
       <c r="I16" t="inlineStr"/>
     </row>
@@ -998,10 +998,10 @@
         <v>-0.2975985271063226</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.3004746086360247</v>
+        <v>-0.292691136760117</v>
       </c>
       <c r="H17" t="n">
-        <v>0.9664300282892718</v>
+        <v>1.648996852881726</v>
       </c>
       <c r="I17" t="inlineStr"/>
     </row>
@@ -1031,10 +1031,10 @@
         <v>-0.1463090402526538</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.1473267163872034</v>
+        <v>-0.1477457799808062</v>
       </c>
       <c r="H18" t="n">
-        <v>0.6955661337072832</v>
+        <v>-0.9819897155168166</v>
       </c>
       <c r="I18" t="inlineStr"/>
     </row>
@@ -1064,10 +1064,10 @@
         <v>-0.1515576784841984</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.17134414218564</v>
+        <v>-0.1469355887110757</v>
       </c>
       <c r="H19" t="n">
-        <v>13.05540167897502</v>
+        <v>3.049723260048883</v>
       </c>
       <c r="I19" t="inlineStr"/>
     </row>
@@ -1097,10 +1097,10 @@
         <v>0.1760882198616668</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1651417582532475</v>
+        <v>0.1694712147808427</v>
       </c>
       <c r="H20" t="n">
-        <v>-6.216464461403914</v>
+        <v>-3.757778394274394</v>
       </c>
       <c r="I20" t="inlineStr"/>
     </row>
@@ -1130,10 +1130,10 @@
         <v>0.1797092892219813</v>
       </c>
       <c r="G21" t="n">
-        <v>0.1690521161359674</v>
+        <v>0.1750357481693709</v>
       </c>
       <c r="H21" t="n">
-        <v>-5.930229390006591</v>
+        <v>-2.600611839734962</v>
       </c>
       <c r="I21" t="inlineStr"/>
     </row>
@@ -1163,10 +1163,10 @@
         <v>0.1310699299328742</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1268695028446521</v>
+        <v>0.1277083499296177</v>
       </c>
       <c r="H22" t="n">
-        <v>-3.204722158906546</v>
+        <v>-2.56472251490338</v>
       </c>
       <c r="I22" t="inlineStr"/>
     </row>
@@ -1196,10 +1196,10 @@
         <v>0.1367006164594899</v>
       </c>
       <c r="G23" t="n">
-        <v>0.136290372181213</v>
+        <v>0.1369009114617165</v>
       </c>
       <c r="H23" t="n">
-        <v>-0.3001041903848695</v>
+        <v>0.1465209209835426</v>
       </c>
       <c r="I23" t="inlineStr"/>
     </row>
@@ -1229,10 +1229,10 @@
         <v>0.08818548087357189</v>
       </c>
       <c r="G24" t="n">
-        <v>0.08684926184942286</v>
+        <v>0.08854897330992016</v>
       </c>
       <c r="H24" t="n">
-        <v>-1.515236987894544</v>
+        <v>0.4121907968834405</v>
       </c>
       <c r="I24" t="inlineStr"/>
     </row>
@@ -1262,10 +1262,10 @@
         <v>0.09282685644658613</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0955298430726679</v>
+        <v>0.08956979274369577</v>
       </c>
       <c r="H25" t="n">
-        <v>2.911858409895751</v>
+        <v>-3.508751483752465</v>
       </c>
       <c r="I25" t="inlineStr"/>
     </row>
@@ -1295,10 +1295,10 @@
         <v>0.0633831948684522</v>
       </c>
       <c r="G26" t="n">
-        <v>0.05902493773112222</v>
+        <v>0.05569705389356894</v>
       </c>
       <c r="H26" t="n">
-        <v>-6.8760452141538</v>
+        <v>-12.12646505250384</v>
       </c>
       <c r="I26" t="inlineStr"/>
     </row>
@@ -1328,10 +1328,10 @@
         <v>0.0571513088897921</v>
       </c>
       <c r="G27" t="n">
-        <v>0.06082769775523405</v>
+        <v>0.06123527541896126</v>
       </c>
       <c r="H27" t="n">
-        <v>6.432729078053708</v>
+        <v>7.145884509914708</v>
       </c>
       <c r="I27" t="inlineStr"/>
     </row>
@@ -1361,10 +1361,10 @@
         <v>-0.1098855847014277</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.104968394902736</v>
+        <v>-0.1099718120802094</v>
       </c>
       <c r="H28" t="n">
-        <v>-4.474826986681003</v>
+        <v>-0.07847014603051423</v>
       </c>
       <c r="I28" t="inlineStr"/>
     </row>
@@ -1394,10 +1394,10 @@
         <v>-0.1125005700755154</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.1069274625155839</v>
+        <v>-0.1037537490908511</v>
       </c>
       <c r="H29" t="n">
-        <v>-4.953848283782544</v>
+        <v>7.774912588258923</v>
       </c>
       <c r="I29" t="inlineStr"/>
     </row>
@@ -1427,10 +1427,10 @@
         <v>0.1141038915889902</v>
       </c>
       <c r="G30" t="n">
-        <v>0.1161897610090216</v>
+        <v>0.1225503590800338</v>
       </c>
       <c r="H30" t="n">
-        <v>1.828044066669385</v>
+        <v>7.402435949746859</v>
       </c>
       <c r="I30" t="inlineStr"/>
     </row>
@@ -1460,10 +1460,10 @@
         <v>0.1173112250060583</v>
       </c>
       <c r="G31" t="n">
-        <v>0.1157742115364482</v>
+        <v>0.1192458790331581</v>
       </c>
       <c r="H31" t="n">
-        <v>-1.310201534022621</v>
+        <v>1.649163604761515</v>
       </c>
       <c r="I31" t="inlineStr"/>
     </row>
@@ -1493,10 +1493,10 @@
         <v>0.09762696239513032</v>
       </c>
       <c r="G32" t="n">
-        <v>0.09929906167395376</v>
+        <v>0.09362309982451052</v>
       </c>
       <c r="H32" t="n">
-        <v>1.712743321927685</v>
+        <v>-4.101185238576585</v>
       </c>
       <c r="I32" t="inlineStr"/>
     </row>
@@ -1526,10 +1526,10 @@
         <v>0.09713843665228507</v>
       </c>
       <c r="G33" t="n">
-        <v>0.1012195646436525</v>
+        <v>0.1001769496936324</v>
       </c>
       <c r="H33" t="n">
-        <v>4.201352350332923</v>
+        <v>3.128023412837021</v>
       </c>
       <c r="I33" t="inlineStr"/>
     </row>
@@ -1559,10 +1559,10 @@
         <v>0.0576776914251576</v>
       </c>
       <c r="G34" t="n">
-        <v>0.06486467671947999</v>
+        <v>0.05635725405994955</v>
       </c>
       <c r="H34" t="n">
-        <v>12.46059805227849</v>
+        <v>-2.289338100366669</v>
       </c>
       <c r="I34" t="inlineStr"/>
     </row>
@@ -1592,10 +1592,10 @@
         <v>0.05634466182785419</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0600124027182165</v>
+        <v>0.06322968013334818</v>
       </c>
       <c r="H35" t="n">
-        <v>6.509473606511462</v>
+        <v>12.21946868104256</v>
       </c>
       <c r="I35" t="inlineStr"/>
     </row>
@@ -1625,10 +1625,10 @@
         <v>0.01940027443471792</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01522556451982767</v>
+        <v>0.02248192203751001</v>
       </c>
       <c r="H36" t="n">
-        <v>-21.51881886484742</v>
+        <v>15.88455675285347</v>
       </c>
       <c r="I36" t="inlineStr"/>
     </row>
@@ -1658,10 +1658,10 @@
         <v>0.01690084256368003</v>
       </c>
       <c r="G37" t="n">
-        <v>0.01965035323766182</v>
+        <v>0.01321351883941463</v>
       </c>
       <c r="H37" t="n">
-        <v>16.2684828500237</v>
+        <v>-21.81739585095876</v>
       </c>
       <c r="I37" t="inlineStr"/>
     </row>
@@ -1691,10 +1691,10 @@
         <v>-0.1957330145089376</v>
       </c>
       <c r="G38" t="n">
-        <v>-0.1977049603174557</v>
+        <v>-0.1957096217813113</v>
       </c>
       <c r="H38" t="n">
-        <v>1.007467142661348</v>
+        <v>0.01195134488935966</v>
       </c>
       <c r="I38" t="inlineStr"/>
     </row>
@@ -1724,10 +1724,10 @@
         <v>-0.2031833805928625</v>
       </c>
       <c r="G39" t="n">
-        <v>-0.204403113637437</v>
+        <v>-0.2150736419162474</v>
       </c>
       <c r="H39" t="n">
-        <v>0.6003114236092846</v>
+        <v>-5.851985181411325</v>
       </c>
       <c r="I39" t="inlineStr"/>
     </row>
@@ -1757,10 +1757,10 @@
         <v>0.1479574051690894</v>
       </c>
       <c r="G40" t="n">
-        <v>0.1526470452277038</v>
+        <v>0.1541406354364409</v>
       </c>
       <c r="H40" t="n">
-        <v>3.169587931915254</v>
+        <v>4.179061034684384</v>
       </c>
       <c r="I40" t="inlineStr"/>
     </row>
@@ -1790,10 +1790,10 @@
         <v>0.1596092205391409</v>
       </c>
       <c r="G41" t="n">
-        <v>0.1523751068082549</v>
+        <v>0.1563511530053901</v>
       </c>
       <c r="H41" t="n">
-        <v>-4.532390864669367</v>
+        <v>-2.041277767503302</v>
       </c>
       <c r="I41" t="inlineStr"/>
     </row>
@@ -1823,10 +1823,10 @@
         <v>0.1078882482502147</v>
       </c>
       <c r="G42" t="n">
-        <v>0.1096696167919823</v>
+        <v>0.1181614762070981</v>
       </c>
       <c r="H42" t="n">
-        <v>1.651123797687622</v>
+        <v>9.522100991998411</v>
       </c>
       <c r="I42" t="inlineStr"/>
     </row>
@@ -1856,10 +1856,10 @@
         <v>0.1119319091195349</v>
       </c>
       <c r="G43" t="n">
-        <v>0.1171085187320685</v>
+        <v>0.109938924718136</v>
       </c>
       <c r="H43" t="n">
-        <v>4.624784525925811</v>
+        <v>-1.780532840970795</v>
       </c>
       <c r="I43" t="inlineStr"/>
     </row>
@@ -1889,10 +1889,10 @@
         <v>-0.04121367944339337</v>
       </c>
       <c r="G44" t="n">
-        <v>-0.04111267563266183</v>
+        <v>-0.04494131729767299</v>
       </c>
       <c r="H44" t="n">
-        <v>-0.2450735098045968</v>
+        <v>-9.044661638132803</v>
       </c>
       <c r="I44" t="inlineStr"/>
     </row>
@@ -1922,10 +1922,10 @@
         <v>-0.04162983658448242</v>
       </c>
       <c r="G45" t="n">
-        <v>-0.04697536095947459</v>
+        <v>-0.04913584591653666</v>
       </c>
       <c r="H45" t="n">
-        <v>12.84060859605854</v>
+        <v>-18.03035982815297</v>
       </c>
       <c r="I45" t="inlineStr"/>
     </row>
@@ -1955,10 +1955,10 @@
         <v>0.0430263323809211</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04734061711171482</v>
+        <v>0.04706989046651919</v>
       </c>
       <c r="H46" t="n">
-        <v>10.02707991143297</v>
+        <v>9.397868379297643</v>
       </c>
       <c r="I46" t="inlineStr"/>
     </row>
@@ -1988,10 +1988,10 @@
         <v>0.04940932482023017</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05014391182510918</v>
+        <v>0.04526066519065335</v>
       </c>
       <c r="H47" t="n">
-        <v>1.486737589618385</v>
+        <v>-8.396511477684049</v>
       </c>
       <c r="I47" t="inlineStr"/>
     </row>
@@ -2021,10 +2021,10 @@
         <v>0.01240329972439864</v>
       </c>
       <c r="G48" t="n">
-        <v>0.01726212975884497</v>
+        <v>0.01660421011079852</v>
       </c>
       <c r="H48" t="n">
-        <v>39.17368879580071</v>
+        <v>33.86929671735848</v>
       </c>
       <c r="I48" t="inlineStr"/>
     </row>
@@ -2054,10 +2054,10 @@
         <v>0.01891279586603259</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02148393469444955</v>
+        <v>0.01858094681979531</v>
       </c>
       <c r="H49" t="n">
-        <v>13.59470512255002</v>
+        <v>-1.754627124344325</v>
       </c>
       <c r="I49" t="inlineStr"/>
     </row>
@@ -2087,10 +2087,10 @@
         <v>0.08331112177919647</v>
       </c>
       <c r="G50" t="n">
-        <v>0.08065762070648426</v>
+        <v>0.08616365291379466</v>
       </c>
       <c r="H50" t="n">
-        <v>-3.185050226241002</v>
+        <v>3.423949976521007</v>
       </c>
       <c r="I50" t="inlineStr"/>
     </row>
@@ -2120,10 +2120,10 @@
         <v>0.08759658603381766</v>
       </c>
       <c r="G51" t="n">
-        <v>0.09162095803983028</v>
+        <v>0.07892343881386846</v>
       </c>
       <c r="H51" t="n">
-        <v>4.594211016921327</v>
+        <v>-9.901238864036136</v>
       </c>
       <c r="I51" t="inlineStr"/>
     </row>
@@ -2153,10 +2153,10 @@
         <v>0.0359237617239527</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0318155201823992</v>
+        <v>0.03280040911311884</v>
       </c>
       <c r="H52" t="n">
-        <v>-11.43600041978419</v>
+        <v>-8.694391848032208</v>
       </c>
       <c r="I52" t="inlineStr"/>
     </row>
@@ -2186,10 +2186,10 @@
         <v>0.03087780661820814</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03470589661386125</v>
+        <v>0.0339808586973669</v>
       </c>
       <c r="H53" t="n">
-        <v>12.39754508144289</v>
+        <v>10.04945758462307</v>
       </c>
       <c r="I53" t="inlineStr"/>
     </row>
@@ -2219,10 +2219,10 @@
         <v>0.05972745123340827</v>
       </c>
       <c r="G54" t="n">
-        <v>0.06439905117924237</v>
+        <v>0.05751500858382906</v>
       </c>
       <c r="H54" t="n">
-        <v>7.821529044623052</v>
+        <v>-3.704230808264747</v>
       </c>
       <c r="I54" t="inlineStr"/>
     </row>
@@ -2252,10 +2252,10 @@
         <v>0.06476717173310874</v>
       </c>
       <c r="G55" t="n">
-        <v>0.06711271250272255</v>
+        <v>0.06249022933236412</v>
       </c>
       <c r="H55" t="n">
-        <v>3.621496364360741</v>
+        <v>-3.515581026337542</v>
       </c>
       <c r="I55" t="inlineStr"/>
     </row>
@@ -2285,10 +2285,10 @@
         <v>0.07610167558905528</v>
       </c>
       <c r="G56" t="n">
-        <v>0.07883076604380515</v>
+        <v>0.07159553778226072</v>
       </c>
       <c r="H56" t="n">
-        <v>3.586110862376801</v>
+        <v>-5.921207085015389</v>
       </c>
       <c r="I56" t="inlineStr"/>
     </row>
@@ -2318,10 +2318,10 @@
         <v>0.07639715666827256</v>
       </c>
       <c r="G57" t="n">
-        <v>0.08327936587884431</v>
+        <v>0.07968089957779925</v>
       </c>
       <c r="H57" t="n">
-        <v>9.008462501366768</v>
+        <v>4.298252778941997</v>
       </c>
       <c r="I57" t="inlineStr"/>
     </row>
@@ -2351,10 +2351,10 @@
         <v>0.04700484617669456</v>
       </c>
       <c r="G58" t="n">
-        <v>0.04399623097825647</v>
+        <v>0.04738488013717049</v>
       </c>
       <c r="H58" t="n">
-        <v>-6.400648961020925</v>
+        <v>0.8084995301279257</v>
       </c>
       <c r="I58" t="inlineStr"/>
     </row>
@@ -2384,10 +2384,10 @@
         <v>0.04422603393992752</v>
       </c>
       <c r="G59" t="n">
-        <v>0.046596096285629</v>
+        <v>0.04693570360012618</v>
       </c>
       <c r="H59" t="n">
-        <v>5.358975550285042</v>
+        <v>6.126865601105488</v>
       </c>
       <c r="I59" t="inlineStr"/>
     </row>
@@ -2417,10 +2417,10 @@
         <v>0.04072415366766116</v>
       </c>
       <c r="G60" t="n">
-        <v>0.04221160256968265</v>
+        <v>0.04352832625011364</v>
       </c>
       <c r="H60" t="n">
-        <v>3.652498009314465</v>
+        <v>6.885772520496245</v>
       </c>
       <c r="I60" t="inlineStr"/>
     </row>
@@ -2450,10 +2450,10 @@
         <v>0.04066648323854097</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03991109964413812</v>
+        <v>0.04452632310559842</v>
       </c>
       <c r="H61" t="n">
-        <v>-1.857509020320063</v>
+        <v>9.491452320616091</v>
       </c>
       <c r="I61" t="inlineStr"/>
     </row>
@@ -2483,10 +2483,10 @@
         <v>-0.02683200843546289</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.02609936414534258</v>
+        <v>-0.02590212008041259</v>
       </c>
       <c r="H62" t="n">
-        <v>-2.730486209716593</v>
+        <v>3.465593555126119</v>
       </c>
       <c r="I62" t="inlineStr"/>
     </row>
@@ -2516,10 +2516,10 @@
         <v>-0.03157010675155404</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.02898081546428111</v>
+        <v>-0.02559134751207822</v>
       </c>
       <c r="H63" t="n">
-        <v>-8.201718504310961</v>
+        <v>18.93803935009348</v>
       </c>
       <c r="I63" t="inlineStr"/>
     </row>
@@ -2549,10 +2549,10 @@
         <v>0.08731276108070297</v>
       </c>
       <c r="G64" t="n">
-        <v>0.08108503757965713</v>
+        <v>0.08399827434894504</v>
       </c>
       <c r="H64" t="n">
-        <v>-7.132661278790139</v>
+        <v>-3.796108026745787</v>
       </c>
       <c r="I64" t="inlineStr"/>
     </row>
@@ -2582,10 +2582,10 @@
         <v>0.0862402470971773</v>
       </c>
       <c r="G65" t="n">
-        <v>0.08136778846638898</v>
+        <v>0.08307516531308795</v>
       </c>
       <c r="H65" t="n">
-        <v>-5.649866268701588</v>
+        <v>-3.670075041091741</v>
       </c>
       <c r="I65" t="inlineStr"/>
     </row>
@@ -2615,10 +2615,10 @@
         <v>0.02139393255741548</v>
       </c>
       <c r="G66" t="n">
-        <v>0.02507164923334725</v>
+        <v>0.01659186125259275</v>
       </c>
       <c r="H66" t="n">
-        <v>17.19046587653664</v>
+        <v>-22.44594953235118</v>
       </c>
       <c r="I66" t="inlineStr"/>
     </row>
@@ -2648,10 +2648,10 @@
         <v>0.0209864019911485</v>
       </c>
       <c r="G67" t="n">
-        <v>0.02592700915284374</v>
+        <v>0.01941002323524261</v>
       </c>
       <c r="H67" t="n">
-        <v>23.54194474964816</v>
+        <v>-7.511429336818974</v>
       </c>
       <c r="I67" t="inlineStr"/>
     </row>
@@ -2681,10 +2681,10 @@
         <v>0.0002099060747878827</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.004824886077243309</v>
+        <v>-0.004638578009159338</v>
       </c>
       <c r="H68" t="n">
-        <v>-2398.592874036172</v>
+        <v>-2309.835048293281</v>
       </c>
       <c r="I68" t="inlineStr"/>
     </row>
@@ -2714,10 +2714,10 @@
         <v>0.002403795222242257</v>
       </c>
       <c r="G69" t="n">
-        <v>0.001282168584090814</v>
+        <v>-0.0001421816739372089</v>
       </c>
       <c r="H69" t="n">
-        <v>-46.66065677196875</v>
+        <v>-105.9148829576499</v>
       </c>
       <c r="I69" t="inlineStr"/>
     </row>
@@ -2747,10 +2747,10 @@
         <v>-0.06800970974818013</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.07120633725793762</v>
+        <v>-0.07728605460915124</v>
       </c>
       <c r="H70" t="n">
-        <v>4.700251657584867</v>
+        <v>-13.63973599551986</v>
       </c>
       <c r="I70" t="inlineStr"/>
     </row>
@@ -2780,10 +2780,10 @@
         <v>-0.07493390691371363</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.07012888172294202</v>
+        <v>-0.07273916691587323</v>
       </c>
       <c r="H71" t="n">
-        <v>-6.41235108200697</v>
+        <v>2.928901065264937</v>
       </c>
       <c r="I71" t="inlineStr"/>
     </row>
@@ -2813,10 +2813,10 @@
         <v>0.04705509918424316</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04909327384363246</v>
+        <v>0.04993476447201481</v>
       </c>
       <c r="H72" t="n">
-        <v>4.331463953372785</v>
+        <v>6.119773069644136</v>
       </c>
       <c r="I72" t="inlineStr"/>
     </row>
@@ -2846,10 +2846,10 @@
         <v>0.05135734494488805</v>
       </c>
       <c r="G73" t="n">
-        <v>0.05349632976781631</v>
+        <v>0.04758604340590442</v>
       </c>
       <c r="H73" t="n">
-        <v>4.164905380571414</v>
+        <v>-7.343256437868114</v>
       </c>
       <c r="I73" t="inlineStr"/>
     </row>
@@ -2879,10 +2879,10 @@
         <v>0.04317079645533341</v>
       </c>
       <c r="G74" t="n">
-        <v>0.0524231350589886</v>
+        <v>0.04906535009964123</v>
       </c>
       <c r="H74" t="n">
-        <v>21.43193863293236</v>
+        <v>13.65403033600878</v>
       </c>
       <c r="I74" t="inlineStr"/>
     </row>
@@ -2912,10 +2912,10 @@
         <v>0.04545429362859869</v>
       </c>
       <c r="G75" t="n">
-        <v>0.04990683388039562</v>
+        <v>0.05042294595863966</v>
       </c>
       <c r="H75" t="n">
-        <v>9.795642823487878</v>
+        <v>10.93109568622758</v>
       </c>
       <c r="I75" t="inlineStr"/>
     </row>
@@ -2945,10 +2945,10 @@
         <v>0.03098560570893229</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03108666255103362</v>
+        <v>0.02583671849063812</v>
       </c>
       <c r="H76" t="n">
-        <v>0.3261412510396607</v>
+        <v>-16.61702942540797</v>
       </c>
       <c r="I76" t="inlineStr"/>
     </row>
@@ -2978,10 +2978,10 @@
         <v>0.02938276534215063</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02873096003489837</v>
+        <v>0.03377297546532437</v>
       </c>
       <c r="H77" t="n">
-        <v>-2.21832526538005</v>
+        <v>14.94144636167322</v>
       </c>
       <c r="I77" t="inlineStr"/>
     </row>
@@ -3011,10 +3011,10 @@
         <v>0.03446971281615122</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03323513269172343</v>
+        <v>0.03236705905197563</v>
       </c>
       <c r="H78" t="n">
-        <v>-3.58163739574098</v>
+        <v>-6.100003720339581</v>
       </c>
       <c r="I78" t="inlineStr"/>
     </row>
@@ -3044,10 +3044,10 @@
         <v>0.03210438352746564</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03710125278287671</v>
+        <v>0.02846822283949482</v>
       </c>
       <c r="H79" t="n">
-        <v>15.56444543199589</v>
+        <v>-11.3260567201362</v>
       </c>
       <c r="I79" t="inlineStr"/>
     </row>
@@ -3077,10 +3077,10 @@
         <v>0.02946645069203743</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03616456151524923</v>
+        <v>0.03176612071124274</v>
       </c>
       <c r="H80" t="n">
-        <v>22.73131193578668</v>
+        <v>7.804367221691683</v>
       </c>
       <c r="I80" t="inlineStr"/>
     </row>
@@ -3110,10 +3110,10 @@
         <v>0.03483623078952545</v>
       </c>
       <c r="G81" t="n">
-        <v>0.04153515308131128</v>
+        <v>0.03895162587677866</v>
       </c>
       <c r="H81" t="n">
-        <v>19.22975631967643</v>
+        <v>11.81354869336389</v>
       </c>
       <c r="I81" t="inlineStr"/>
     </row>
@@ -3143,10 +3143,10 @@
         <v>0.04915099280235283</v>
       </c>
       <c r="G82" t="n">
-        <v>0.05527307037576719</v>
+        <v>0.05526176760404333</v>
       </c>
       <c r="H82" t="n">
-        <v>12.45565394382288</v>
+        <v>12.43265792465943</v>
       </c>
       <c r="I82" t="inlineStr"/>
     </row>
@@ -3176,10 +3176,10 @@
         <v>0.05158573348780684</v>
       </c>
       <c r="G83" t="n">
-        <v>0.05196493014247359</v>
+        <v>0.05165034530822814</v>
       </c>
       <c r="H83" t="n">
-        <v>0.7350804748300792</v>
+        <v>0.125251336082236</v>
       </c>
       <c r="I83" t="inlineStr"/>
     </row>
@@ -3209,10 +3209,10 @@
         <v>0.03674808205395363</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03401561128569314</v>
+        <v>0.03930369382144462</v>
       </c>
       <c r="H84" t="n">
-        <v>-7.435682668414286</v>
+        <v>6.954408569510752</v>
       </c>
       <c r="I84" t="inlineStr"/>
     </row>
@@ -3242,10 +3242,10 @@
         <v>0.0325927857683894</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03638019506344208</v>
+        <v>0.03365601539311616</v>
       </c>
       <c r="H85" t="n">
-        <v>11.62039146321134</v>
+        <v>3.262162468351973</v>
       </c>
       <c r="I85" t="inlineStr"/>
     </row>
@@ -3275,10 +3275,10 @@
         <v>0.02684374630159742</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02706393617163378</v>
+        <v>0.03158398377032351</v>
       </c>
       <c r="H86" t="n">
-        <v>0.8202650537762624</v>
+        <v>17.65862862607969</v>
       </c>
       <c r="I86" t="inlineStr"/>
     </row>
@@ -3308,10 +3308,10 @@
         <v>0.03362548835019527</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03153098281183696</v>
+        <v>0.03597895301102305</v>
       </c>
       <c r="H87" t="n">
-        <v>-6.228922288190796</v>
+        <v>6.999049757485869</v>
       </c>
       <c r="I87" t="inlineStr"/>
     </row>
@@ -3341,10 +3341,10 @@
         <v>0.0556764454163631</v>
       </c>
       <c r="G88" t="n">
-        <v>0.05472084552963639</v>
+        <v>0.05460961137025822</v>
       </c>
       <c r="H88" t="n">
-        <v>-1.716344999362813</v>
+        <v>-1.916131746785942</v>
       </c>
       <c r="I88" t="inlineStr"/>
     </row>
@@ -3374,10 +3374,10 @@
         <v>0.05379100486134444</v>
       </c>
       <c r="G89" t="n">
-        <v>0.0540441237940885</v>
+        <v>0.0526690606781917</v>
       </c>
       <c r="H89" t="n">
-        <v>0.4705599633182605</v>
+        <v>-2.085746838239479</v>
       </c>
       <c r="I89" t="inlineStr"/>
     </row>
@@ -3407,10 +3407,10 @@
         <v>-0.02393890867148892</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.02573116960456811</v>
+        <v>-0.02497486695940706</v>
       </c>
       <c r="H90" t="n">
-        <v>7.486811356667071</v>
+        <v>-4.327508417925334</v>
       </c>
       <c r="I90" t="inlineStr"/>
     </row>
@@ -3440,10 +3440,10 @@
         <v>-0.02071924697958748</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.01520646307579088</v>
+        <v>-0.01948800514961873</v>
       </c>
       <c r="H91" t="n">
-        <v>-26.60706689402261</v>
+        <v>5.94250279067461</v>
       </c>
       <c r="I91" t="inlineStr"/>
     </row>
@@ -3473,10 +3473,10 @@
         <v>0.03963729108941371</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04289575477020292</v>
+        <v>0.04336013019644817</v>
       </c>
       <c r="H92" t="n">
-        <v>8.220702250915107</v>
+        <v>9.392264215625847</v>
       </c>
       <c r="I92" t="inlineStr"/>
     </row>
@@ -3506,10 +3506,10 @@
         <v>0.04830041776286424</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04415741403749714</v>
+        <v>0.04503648892031115</v>
       </c>
       <c r="H93" t="n">
-        <v>-8.577573274226307</v>
+        <v>-6.757558202866227</v>
       </c>
       <c r="I93" t="inlineStr"/>
     </row>
@@ -3539,10 +3539,10 @@
         <v>0.04450335749651464</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04366908640517474</v>
+        <v>0.05252572053206531</v>
       </c>
       <c r="H94" t="n">
-        <v>-1.874625058132395</v>
+        <v>18.02642202035871</v>
       </c>
       <c r="I94" t="inlineStr"/>
     </row>
@@ -3572,10 +3572,10 @@
         <v>0.04477146600756626</v>
       </c>
       <c r="G95" t="n">
-        <v>0.054149287430313</v>
+        <v>0.05423293707367843</v>
       </c>
       <c r="H95" t="n">
-        <v>20.94597800563847</v>
+        <v>21.13281495967366</v>
       </c>
       <c r="I95" t="inlineStr"/>
     </row>
@@ -3605,10 +3605,10 @@
         <v>-0.146963195107255</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.1366090459789183</v>
+        <v>-0.1415155717149065</v>
       </c>
       <c r="H96" t="n">
-        <v>-7.045402844419763</v>
+        <v>3.706794336073584</v>
       </c>
       <c r="I96" t="inlineStr"/>
     </row>
@@ -3638,10 +3638,10 @@
         <v>-0.150817549107657</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.1543383098512124</v>
+        <v>-0.150674980530574</v>
       </c>
       <c r="H97" t="n">
-        <v>2.334450310581711</v>
+        <v>0.09453049590484552</v>
       </c>
       <c r="I97" t="inlineStr"/>
     </row>
@@ -3671,10 +3671,10 @@
         <v>0.1423101300395017</v>
       </c>
       <c r="G98" t="n">
-        <v>0.148071189007198</v>
+        <v>0.1451387111994629</v>
       </c>
       <c r="H98" t="n">
-        <v>4.048242360608624</v>
+        <v>1.987617578015047</v>
       </c>
       <c r="I98" t="inlineStr"/>
     </row>
@@ -3704,10 +3704,10 @@
         <v>0.1470608929146514</v>
       </c>
       <c r="G99" t="n">
-        <v>0.1502162835531086</v>
+        <v>0.1423844842890841</v>
       </c>
       <c r="H99" t="n">
-        <v>2.145635441155966</v>
+        <v>-3.179913118221936</v>
       </c>
       <c r="I99" t="inlineStr"/>
     </row>
@@ -3737,10 +3737,10 @@
         <v>0.02325180968686057</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02261872114535773</v>
+        <v>0.02740247866848128</v>
       </c>
       <c r="H100" t="n">
-        <v>-2.722749540912479</v>
+        <v>17.85095025943819</v>
       </c>
       <c r="I100" t="inlineStr"/>
     </row>
@@ -3770,10 +3770,10 @@
         <v>0.0273166824388394</v>
       </c>
       <c r="G101" t="n">
-        <v>0.02384726133869442</v>
+        <v>0.02655478682349716</v>
       </c>
       <c r="H101" t="n">
-        <v>-12.70074105050212</v>
+        <v>-2.789122057731881</v>
       </c>
       <c r="I101" t="inlineStr"/>
     </row>
@@ -3803,10 +3803,10 @@
         <v>-0.007741144401112737</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.008677976078854299</v>
+        <v>-0.01549448638036584</v>
       </c>
       <c r="H102" t="n">
-        <v>12.10197910281713</v>
+        <v>-100.1575681515334</v>
       </c>
       <c r="I102" t="inlineStr"/>
     </row>
@@ -3836,10 +3836,10 @@
         <v>-0.00766063640908223</v>
       </c>
       <c r="G103" t="n">
-        <v>-0.009843309737406169</v>
+        <v>-0.01268688070772121</v>
       </c>
       <c r="H103" t="n">
-        <v>28.49206269254893</v>
+        <v>-65.61131517324084</v>
       </c>
       <c r="I103" t="inlineStr"/>
     </row>
@@ -3869,10 +3869,10 @@
         <v>0.0727885622270989</v>
       </c>
       <c r="G104" t="n">
-        <v>0.07229699955764651</v>
+        <v>0.07536923159281808</v>
       </c>
       <c r="H104" t="n">
-        <v>-0.6753295496052215</v>
+        <v>3.545432533297672</v>
       </c>
       <c r="I104" t="inlineStr"/>
     </row>
@@ -3902,10 +3902,10 @@
         <v>0.07478882140984003</v>
       </c>
       <c r="G105" t="n">
-        <v>0.07499345320815973</v>
+        <v>0.07473330653502937</v>
       </c>
       <c r="H105" t="n">
-        <v>0.2736128133351962</v>
+        <v>-0.07422884030548024</v>
       </c>
       <c r="I105" t="inlineStr"/>
     </row>
@@ -3935,10 +3935,10 @@
         <v>-0.3466071028434384</v>
       </c>
       <c r="G106" t="n">
-        <v>-0.3603842024171886</v>
+        <v>-0.3662094374891678</v>
       </c>
       <c r="H106" t="n">
-        <v>3.974846291587196</v>
+        <v>-5.655491328630891</v>
       </c>
       <c r="I106" t="inlineStr"/>
     </row>
@@ -3968,10 +3968,10 @@
         <v>-0.3762531854192955</v>
       </c>
       <c r="G107" t="n">
-        <v>-0.3559766386303915</v>
+        <v>-0.3579273023664822</v>
       </c>
       <c r="H107" t="n">
-        <v>-5.389069800514214</v>
+        <v>4.870625356271996</v>
       </c>
       <c r="I107" t="inlineStr"/>
     </row>
@@ -4001,10 +4001,10 @@
         <v>0.2249197822222643</v>
       </c>
       <c r="G108" t="n">
-        <v>0.2288062360890049</v>
+        <v>0.2335107169605906</v>
       </c>
       <c r="H108" t="n">
-        <v>1.727928876838427</v>
+        <v>3.819554977977338</v>
       </c>
       <c r="I108" t="inlineStr"/>
     </row>
@@ -4034,10 +4034,10 @@
         <v>0.2226452381003289</v>
       </c>
       <c r="G109" t="n">
-        <v>0.2356894319953309</v>
+        <v>0.236489572930413</v>
       </c>
       <c r="H109" t="n">
-        <v>5.85873473257218</v>
+        <v>6.218114049151832</v>
       </c>
       <c r="I109" t="inlineStr"/>
     </row>
@@ -4067,10 +4067,10 @@
         <v>0.05862760492876468</v>
       </c>
       <c r="G110" t="n">
-        <v>0.06448771356327458</v>
+        <v>0.06122458504279254</v>
       </c>
       <c r="H110" t="n">
-        <v>9.995476775198659</v>
+        <v>4.429620000993234</v>
       </c>
       <c r="I110" t="inlineStr"/>
     </row>
@@ -4100,10 +4100,10 @@
         <v>0.05744215554139705</v>
       </c>
       <c r="G111" t="n">
-        <v>0.06989145061041332</v>
+        <v>0.06433743086467067</v>
       </c>
       <c r="H111" t="n">
-        <v>21.67275052908556</v>
+        <v>12.00385893998072</v>
       </c>
       <c r="I111" t="inlineStr"/>
     </row>
@@ -4133,10 +4133,10 @@
         <v>0.1283068976581735</v>
       </c>
       <c r="G112" t="n">
-        <v>0.1335710538960799</v>
+        <v>0.1303284680495016</v>
       </c>
       <c r="H112" t="n">
-        <v>4.102785067667068</v>
+        <v>1.575574211695025</v>
       </c>
       <c r="I112" t="inlineStr"/>
     </row>
@@ -4166,10 +4166,10 @@
         <v>0.1309363224202389</v>
       </c>
       <c r="G113" t="n">
-        <v>0.1371243766551331</v>
+        <v>0.1337706066293499</v>
       </c>
       <c r="H113" t="n">
-        <v>4.726002777925679</v>
+        <v>2.164627932663628</v>
       </c>
       <c r="I113" t="inlineStr"/>
     </row>

--- a/Code/Data/S&P500/Compared Returns/Auto Recurrence/input 125/S&P500_returns_compared_trimester.xlsx
+++ b/Code/Data/S&P500/Compared Returns/Auto Recurrence/input 125/S&P500_returns_compared_trimester.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -53,18 +53,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -501,13 +501,13 @@
         <v>0.02539780777448591</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02114123668755364</v>
+        <v>0.02663972828345512</v>
       </c>
       <c r="H2" t="n">
-        <v>-16.75960037467616</v>
+        <v>4.889872858305566</v>
       </c>
       <c r="I2" t="n">
-        <v>-20.51970313467109</v>
+        <v>-7.116586112518064</v>
       </c>
     </row>
     <row r="3">
@@ -536,10 +536,10 @@
         <v>0.02850917715789084</v>
       </c>
       <c r="G3" t="n">
-        <v>0.02232483822391389</v>
+        <v>0.02425192177298574</v>
       </c>
       <c r="H3" t="n">
-        <v>-21.69244976705767</v>
+        <v>-14.93292970655509</v>
       </c>
       <c r="I3" t="inlineStr"/>
     </row>
@@ -569,10 +569,10 @@
         <v>0.03688642016201375</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03799250200040161</v>
+        <v>0.03657147359956708</v>
       </c>
       <c r="H4" t="n">
-        <v>2.998615299423704</v>
+        <v>-0.8538279428129847</v>
       </c>
       <c r="I4" t="inlineStr"/>
     </row>
@@ -602,10 +602,10 @@
         <v>0.03720152667980871</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03943361633612762</v>
+        <v>0.04393075856363748</v>
       </c>
       <c r="H5" t="n">
-        <v>5.999994773145673</v>
+        <v>18.08859066926705</v>
       </c>
       <c r="I5" t="inlineStr"/>
     </row>
@@ -635,10 +635,10 @@
         <v>0.006559799104029466</v>
       </c>
       <c r="G6" t="n">
-        <v>0.01468724378987546</v>
+        <v>0.01551329733954229</v>
       </c>
       <c r="H6" t="n">
-        <v>123.8977681626496</v>
+        <v>136.4904335258223</v>
       </c>
       <c r="I6" t="inlineStr"/>
     </row>
@@ -668,10 +668,10 @@
         <v>0.0115941307058423</v>
       </c>
       <c r="G7" t="n">
-        <v>0.009487819053755706</v>
+        <v>0.009210077561815343</v>
       </c>
       <c r="H7" t="n">
-        <v>-18.16705111859072</v>
+        <v>-20.56258640266691</v>
       </c>
       <c r="I7" t="inlineStr"/>
     </row>
@@ -701,10 +701,10 @@
         <v>-0.05022737750499624</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.03793065852637566</v>
+        <v>-0.04520925310148722</v>
       </c>
       <c r="H8" t="n">
-        <v>24.48210436110745</v>
+        <v>9.990815074925738</v>
       </c>
       <c r="I8" t="inlineStr"/>
     </row>
@@ -734,10 +734,10 @@
         <v>-0.04691588781839836</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.04277489439759159</v>
+        <v>-0.04097528059143909</v>
       </c>
       <c r="H9" t="n">
-        <v>8.826420245601428</v>
+        <v>12.66225047249266</v>
       </c>
       <c r="I9" t="inlineStr"/>
     </row>
@@ -767,10 +767,10 @@
         <v>-0.04134023671255897</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.04290434191539118</v>
+        <v>-0.04291103266674889</v>
       </c>
       <c r="H10" t="n">
-        <v>-3.783493582069978</v>
+        <v>-3.799678180634882</v>
       </c>
       <c r="I10" t="inlineStr"/>
     </row>
@@ -800,10 +800,10 @@
         <v>-0.04184362476160845</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.04134421861316108</v>
+        <v>-0.0417013651428955</v>
       </c>
       <c r="H11" t="n">
-        <v>1.193505943360764</v>
+        <v>0.3399791952141725</v>
       </c>
       <c r="I11" t="inlineStr"/>
     </row>
@@ -833,10 +833,10 @@
         <v>-0.04913332877268228</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.04607009859565475</v>
+        <v>-0.05225182382970741</v>
       </c>
       <c r="H12" t="n">
-        <v>6.234526040764943</v>
+        <v>-6.34700545418568</v>
       </c>
       <c r="I12" t="inlineStr"/>
     </row>
@@ -866,10 +866,10 @@
         <v>-0.05296564739060104</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.05677491730256897</v>
+        <v>-0.04095382882989559</v>
       </c>
       <c r="H13" t="n">
-        <v>-7.191963281173636</v>
+        <v>22.67850796219475</v>
       </c>
       <c r="I13" t="inlineStr"/>
     </row>
@@ -899,10 +899,10 @@
         <v>-0.0742566594116762</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.0681383231288669</v>
+        <v>-0.07937662800518265</v>
       </c>
       <c r="H14" t="n">
-        <v>8.239444557947941</v>
+        <v>-6.894962194732646</v>
       </c>
       <c r="I14" t="inlineStr"/>
     </row>
@@ -932,10 +932,10 @@
         <v>-0.08994896525467186</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.08527015732422716</v>
+        <v>-0.08445715566278614</v>
       </c>
       <c r="H15" t="n">
-        <v>5.201625073949017</v>
+        <v>6.105472782634909</v>
       </c>
       <c r="I15" t="inlineStr"/>
     </row>
@@ -965,10 +965,10 @@
         <v>-0.2928831391059319</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.2863969169436861</v>
+        <v>-0.2777963320447827</v>
       </c>
       <c r="H16" t="n">
-        <v>2.214610981719857</v>
+        <v>5.151135400693886</v>
       </c>
       <c r="I16" t="inlineStr"/>
     </row>
@@ -998,10 +998,10 @@
         <v>-0.2975985271063226</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.292691136760117</v>
+        <v>-0.3063717723387978</v>
       </c>
       <c r="H17" t="n">
-        <v>1.648996852881726</v>
+        <v>-2.948013660477824</v>
       </c>
       <c r="I17" t="inlineStr"/>
     </row>
@@ -1031,10 +1031,10 @@
         <v>-0.1463090402526538</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.1477457799808062</v>
+        <v>-0.1338502979329464</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.9819897155168166</v>
+        <v>8.515360567052461</v>
       </c>
       <c r="I18" t="inlineStr"/>
     </row>
@@ -1064,10 +1064,10 @@
         <v>-0.1515576784841984</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.1469355887110757</v>
+        <v>-0.1592203415991414</v>
       </c>
       <c r="H19" t="n">
-        <v>3.049723260048883</v>
+        <v>-5.055938565159471</v>
       </c>
       <c r="I19" t="inlineStr"/>
     </row>
@@ -1097,10 +1097,10 @@
         <v>0.1760882198616668</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1694712147808427</v>
+        <v>0.1638692358619121</v>
       </c>
       <c r="H20" t="n">
-        <v>-3.757778394274394</v>
+        <v>-6.939126313704476</v>
       </c>
       <c r="I20" t="inlineStr"/>
     </row>
@@ -1130,10 +1130,10 @@
         <v>0.1797092892219813</v>
       </c>
       <c r="G21" t="n">
-        <v>0.1750357481693709</v>
+        <v>0.1702675073141</v>
       </c>
       <c r="H21" t="n">
-        <v>-2.600611839734962</v>
+        <v>-5.253919788319101</v>
       </c>
       <c r="I21" t="inlineStr"/>
     </row>
@@ -1163,10 +1163,10 @@
         <v>0.1310699299328742</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1277083499296177</v>
+        <v>0.1253540205420584</v>
       </c>
       <c r="H22" t="n">
-        <v>-2.56472251490338</v>
+        <v>-4.360961658973281</v>
       </c>
       <c r="I22" t="inlineStr"/>
     </row>
@@ -1196,10 +1196,10 @@
         <v>0.1367006164594899</v>
       </c>
       <c r="G23" t="n">
-        <v>0.1369009114617165</v>
+        <v>0.128068688111228</v>
       </c>
       <c r="H23" t="n">
-        <v>0.1465209209835426</v>
+        <v>-6.314476534068795</v>
       </c>
       <c r="I23" t="inlineStr"/>
     </row>
@@ -1229,10 +1229,10 @@
         <v>0.08818548087357189</v>
       </c>
       <c r="G24" t="n">
-        <v>0.08854897330992016</v>
+        <v>0.08689523224462406</v>
       </c>
       <c r="H24" t="n">
-        <v>0.4121907968834405</v>
+        <v>-1.463107777115387</v>
       </c>
       <c r="I24" t="inlineStr"/>
     </row>
@@ -1262,10 +1262,10 @@
         <v>0.09282685644658613</v>
       </c>
       <c r="G25" t="n">
-        <v>0.08956979274369577</v>
+        <v>0.09341334130910958</v>
       </c>
       <c r="H25" t="n">
-        <v>-3.508751483752465</v>
+        <v>0.6318051531357471</v>
       </c>
       <c r="I25" t="inlineStr"/>
     </row>
@@ -1295,10 +1295,10 @@
         <v>0.0633831948684522</v>
       </c>
       <c r="G26" t="n">
-        <v>0.05569705389356894</v>
+        <v>0.0609781490768169</v>
       </c>
       <c r="H26" t="n">
-        <v>-12.12646505250384</v>
+        <v>-3.794453398297167</v>
       </c>
       <c r="I26" t="inlineStr"/>
     </row>
@@ -1328,10 +1328,10 @@
         <v>0.0571513088897921</v>
       </c>
       <c r="G27" t="n">
-        <v>0.06123527541896126</v>
+        <v>0.0594635461879436</v>
       </c>
       <c r="H27" t="n">
-        <v>7.145884509914708</v>
+        <v>4.04581687290891</v>
       </c>
       <c r="I27" t="inlineStr"/>
     </row>
@@ -1361,10 +1361,10 @@
         <v>-0.1098855847014277</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.1099718120802094</v>
+        <v>-0.1080408011809086</v>
       </c>
       <c r="H28" t="n">
-        <v>-0.07847014603051423</v>
+        <v>1.67882213625345</v>
       </c>
       <c r="I28" t="inlineStr"/>
     </row>
@@ -1394,10 +1394,10 @@
         <v>-0.1125005700755154</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.1037537490908511</v>
+        <v>-0.1096808311569891</v>
       </c>
       <c r="H29" t="n">
-        <v>7.774912588258923</v>
+        <v>2.506421893358909</v>
       </c>
       <c r="I29" t="inlineStr"/>
     </row>
@@ -1427,10 +1427,10 @@
         <v>0.1141038915889902</v>
       </c>
       <c r="G30" t="n">
-        <v>0.1225503590800338</v>
+        <v>0.1173614100297155</v>
       </c>
       <c r="H30" t="n">
-        <v>7.402435949746859</v>
+        <v>2.854870587989311</v>
       </c>
       <c r="I30" t="inlineStr"/>
     </row>
@@ -1460,10 +1460,10 @@
         <v>0.1173112250060583</v>
       </c>
       <c r="G31" t="n">
-        <v>0.1192458790331581</v>
+        <v>0.1161362971998072</v>
       </c>
       <c r="H31" t="n">
-        <v>1.649163604761515</v>
+        <v>-1.001547640637478</v>
       </c>
       <c r="I31" t="inlineStr"/>
     </row>
@@ -1493,10 +1493,10 @@
         <v>0.09762696239513032</v>
       </c>
       <c r="G32" t="n">
-        <v>0.09362309982451052</v>
+        <v>0.09547290921304862</v>
       </c>
       <c r="H32" t="n">
-        <v>-4.101185238576585</v>
+        <v>-2.206412172657279</v>
       </c>
       <c r="I32" t="inlineStr"/>
     </row>
@@ -1526,10 +1526,10 @@
         <v>0.09713843665228507</v>
       </c>
       <c r="G33" t="n">
-        <v>0.1001769496936324</v>
+        <v>0.1019349978386553</v>
       </c>
       <c r="H33" t="n">
-        <v>3.128023412837021</v>
+        <v>4.937861213002543</v>
       </c>
       <c r="I33" t="inlineStr"/>
     </row>
@@ -1559,10 +1559,10 @@
         <v>0.0576776914251576</v>
       </c>
       <c r="G34" t="n">
-        <v>0.05635725405994955</v>
+        <v>0.0557230798884486</v>
       </c>
       <c r="H34" t="n">
-        <v>-2.289338100366669</v>
+        <v>-3.388851891281566</v>
       </c>
       <c r="I34" t="inlineStr"/>
     </row>
@@ -1592,10 +1592,10 @@
         <v>0.05634466182785419</v>
       </c>
       <c r="G35" t="n">
-        <v>0.06322968013334818</v>
+        <v>0.05882042096603241</v>
       </c>
       <c r="H35" t="n">
-        <v>12.21946868104256</v>
+        <v>4.393955093283245</v>
       </c>
       <c r="I35" t="inlineStr"/>
     </row>
@@ -1625,10 +1625,10 @@
         <v>0.01940027443471792</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02248192203751001</v>
+        <v>0.01845607055424385</v>
       </c>
       <c r="H36" t="n">
-        <v>15.88455675285347</v>
+        <v>-4.866961463103645</v>
       </c>
       <c r="I36" t="inlineStr"/>
     </row>
@@ -1658,10 +1658,10 @@
         <v>0.01690084256368003</v>
       </c>
       <c r="G37" t="n">
-        <v>0.01321351883941463</v>
+        <v>0.015905609639237</v>
       </c>
       <c r="H37" t="n">
-        <v>-21.81739585095876</v>
+        <v>-5.88865863162223</v>
       </c>
       <c r="I37" t="inlineStr"/>
     </row>
@@ -1691,10 +1691,10 @@
         <v>-0.1957330145089376</v>
       </c>
       <c r="G38" t="n">
-        <v>-0.1957096217813113</v>
+        <v>-0.1973928607775519</v>
       </c>
       <c r="H38" t="n">
-        <v>0.01195134488935966</v>
+        <v>-0.8480154831205023</v>
       </c>
       <c r="I38" t="inlineStr"/>
     </row>
@@ -1724,10 +1724,10 @@
         <v>-0.2031833805928625</v>
       </c>
       <c r="G39" t="n">
-        <v>-0.2150736419162474</v>
+        <v>-0.2057265140635506</v>
       </c>
       <c r="H39" t="n">
-        <v>-5.851985181411325</v>
+        <v>-1.251644432368224</v>
       </c>
       <c r="I39" t="inlineStr"/>
     </row>
@@ -1757,10 +1757,10 @@
         <v>0.1479574051690894</v>
       </c>
       <c r="G40" t="n">
-        <v>0.1541406354364409</v>
+        <v>0.1560298226364987</v>
       </c>
       <c r="H40" t="n">
-        <v>4.179061034684384</v>
+        <v>5.455906352361306</v>
       </c>
       <c r="I40" t="inlineStr"/>
     </row>
@@ -1790,10 +1790,10 @@
         <v>0.1596092205391409</v>
       </c>
       <c r="G41" t="n">
-        <v>0.1563511530053901</v>
+        <v>0.1632541941015608</v>
       </c>
       <c r="H41" t="n">
-        <v>-2.041277767503302</v>
+        <v>2.283686086623083</v>
       </c>
       <c r="I41" t="inlineStr"/>
     </row>
@@ -1823,10 +1823,10 @@
         <v>0.1078882482502147</v>
       </c>
       <c r="G42" t="n">
-        <v>0.1181614762070981</v>
+        <v>0.1085432540771932</v>
       </c>
       <c r="H42" t="n">
-        <v>9.522100991998411</v>
+        <v>0.6071150821351817</v>
       </c>
       <c r="I42" t="inlineStr"/>
     </row>
@@ -1856,10 +1856,10 @@
         <v>0.1119319091195349</v>
       </c>
       <c r="G43" t="n">
-        <v>0.109938924718136</v>
+        <v>0.1151116789453266</v>
       </c>
       <c r="H43" t="n">
-        <v>-1.780532840970795</v>
+        <v>2.840807282573856</v>
       </c>
       <c r="I43" t="inlineStr"/>
     </row>
@@ -1889,10 +1889,10 @@
         <v>-0.04121367944339337</v>
       </c>
       <c r="G44" t="n">
-        <v>-0.04494131729767299</v>
+        <v>-0.04561497192233001</v>
       </c>
       <c r="H44" t="n">
-        <v>-9.044661638132803</v>
+        <v>-10.67920296944557</v>
       </c>
       <c r="I44" t="inlineStr"/>
     </row>
@@ -1922,10 +1922,10 @@
         <v>-0.04162983658448242</v>
       </c>
       <c r="G45" t="n">
-        <v>-0.04913584591653666</v>
+        <v>-0.04757595692038285</v>
       </c>
       <c r="H45" t="n">
-        <v>-18.03035982815297</v>
+        <v>-14.2833141413696</v>
       </c>
       <c r="I45" t="inlineStr"/>
     </row>
@@ -1955,10 +1955,10 @@
         <v>0.0430263323809211</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04706989046651919</v>
+        <v>0.04408310438633802</v>
       </c>
       <c r="H46" t="n">
-        <v>9.397868379297643</v>
+        <v>2.456105242857091</v>
       </c>
       <c r="I46" t="inlineStr"/>
     </row>
@@ -1988,10 +1988,10 @@
         <v>0.04940932482023017</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04526066519065335</v>
+        <v>0.04352619876478378</v>
       </c>
       <c r="H47" t="n">
-        <v>-8.396511477684049</v>
+        <v>-11.90691448800693</v>
       </c>
       <c r="I47" t="inlineStr"/>
     </row>
@@ -2021,10 +2021,10 @@
         <v>0.01240329972439864</v>
       </c>
       <c r="G48" t="n">
-        <v>0.01660421011079852</v>
+        <v>0.01797101300459138</v>
       </c>
       <c r="H48" t="n">
-        <v>33.86929671735848</v>
+        <v>44.88896828994984</v>
       </c>
       <c r="I48" t="inlineStr"/>
     </row>
@@ -2054,10 +2054,10 @@
         <v>0.01891279586603259</v>
       </c>
       <c r="G49" t="n">
-        <v>0.01858094681979531</v>
+        <v>0.02065824592064464</v>
       </c>
       <c r="H49" t="n">
-        <v>-1.754627124344325</v>
+        <v>9.228937207252795</v>
       </c>
       <c r="I49" t="inlineStr"/>
     </row>
@@ -2087,10 +2087,10 @@
         <v>0.08331112177919647</v>
       </c>
       <c r="G50" t="n">
-        <v>0.08616365291379466</v>
+        <v>0.08720258516261213</v>
       </c>
       <c r="H50" t="n">
-        <v>3.423949976521007</v>
+        <v>4.671001062414444</v>
       </c>
       <c r="I50" t="inlineStr"/>
     </row>
@@ -2120,10 +2120,10 @@
         <v>0.08759658603381766</v>
       </c>
       <c r="G51" t="n">
-        <v>0.07892343881386846</v>
+        <v>0.08402458371603462</v>
       </c>
       <c r="H51" t="n">
-        <v>-9.901238864036136</v>
+        <v>-4.077787137051241</v>
       </c>
       <c r="I51" t="inlineStr"/>
     </row>
@@ -2153,10 +2153,10 @@
         <v>0.0359237617239527</v>
       </c>
       <c r="G52" t="n">
-        <v>0.03280040911311884</v>
+        <v>0.02773056644859493</v>
       </c>
       <c r="H52" t="n">
-        <v>-8.694391848032208</v>
+        <v>-22.80717520151804</v>
       </c>
       <c r="I52" t="inlineStr"/>
     </row>
@@ -2186,10 +2186,10 @@
         <v>0.03087780661820814</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0339808586973669</v>
+        <v>0.03609092797373552</v>
       </c>
       <c r="H53" t="n">
-        <v>10.04945758462307</v>
+        <v>16.88306886556276</v>
       </c>
       <c r="I53" t="inlineStr"/>
     </row>
@@ -2219,10 +2219,10 @@
         <v>0.05972745123340827</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05751500858382906</v>
+        <v>0.0611683887715188</v>
       </c>
       <c r="H54" t="n">
-        <v>-3.704230808264747</v>
+        <v>2.412521392348554</v>
       </c>
       <c r="I54" t="inlineStr"/>
     </row>
@@ -2252,10 +2252,10 @@
         <v>0.06476717173310874</v>
       </c>
       <c r="G55" t="n">
-        <v>0.06249022933236412</v>
+        <v>0.06334297755041308</v>
       </c>
       <c r="H55" t="n">
-        <v>-3.515581026337542</v>
+        <v>-2.198944534068038</v>
       </c>
       <c r="I55" t="inlineStr"/>
     </row>
@@ -2285,10 +2285,10 @@
         <v>0.07610167558905528</v>
       </c>
       <c r="G56" t="n">
-        <v>0.07159553778226072</v>
+        <v>0.07309176624143919</v>
       </c>
       <c r="H56" t="n">
-        <v>-5.921207085015389</v>
+        <v>-3.955115737358311</v>
       </c>
       <c r="I56" t="inlineStr"/>
     </row>
@@ -2318,10 +2318,10 @@
         <v>0.07639715666827256</v>
       </c>
       <c r="G57" t="n">
-        <v>0.07968089957779925</v>
+        <v>0.079637819043558</v>
       </c>
       <c r="H57" t="n">
-        <v>4.298252778941997</v>
+        <v>4.241862546477834</v>
       </c>
       <c r="I57" t="inlineStr"/>
     </row>
@@ -2351,10 +2351,10 @@
         <v>0.04700484617669456</v>
       </c>
       <c r="G58" t="n">
-        <v>0.04738488013717049</v>
+        <v>0.0492249960600834</v>
       </c>
       <c r="H58" t="n">
-        <v>0.8084995301279257</v>
+        <v>4.723236142595037</v>
       </c>
       <c r="I58" t="inlineStr"/>
     </row>
@@ -2384,10 +2384,10 @@
         <v>0.04422603393992752</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04693570360012618</v>
+        <v>0.0490479955590954</v>
       </c>
       <c r="H59" t="n">
-        <v>6.126865601105488</v>
+        <v>10.9029935302758</v>
       </c>
       <c r="I59" t="inlineStr"/>
     </row>
@@ -2417,10 +2417,10 @@
         <v>0.04072415366766116</v>
       </c>
       <c r="G60" t="n">
-        <v>0.04352832625011364</v>
+        <v>0.04420617155091048</v>
       </c>
       <c r="H60" t="n">
-        <v>6.885772520496245</v>
+        <v>8.550252294167061</v>
       </c>
       <c r="I60" t="inlineStr"/>
     </row>
@@ -2450,10 +2450,10 @@
         <v>0.04066648323854097</v>
       </c>
       <c r="G61" t="n">
-        <v>0.04452632310559842</v>
+        <v>0.0449792267620704</v>
       </c>
       <c r="H61" t="n">
-        <v>9.491452320616091</v>
+        <v>10.60515485991693</v>
       </c>
       <c r="I61" t="inlineStr"/>
     </row>
@@ -2483,10 +2483,10 @@
         <v>-0.02683200843546289</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.02590212008041259</v>
+        <v>-0.02479506173690771</v>
       </c>
       <c r="H62" t="n">
-        <v>3.465593555126119</v>
+        <v>7.591480538829222</v>
       </c>
       <c r="I62" t="inlineStr"/>
     </row>
@@ -2516,10 +2516,10 @@
         <v>-0.03157010675155404</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.02559134751207822</v>
+        <v>-0.02889820601729782</v>
       </c>
       <c r="H63" t="n">
-        <v>18.93803935009348</v>
+        <v>8.463388341646006</v>
       </c>
       <c r="I63" t="inlineStr"/>
     </row>
@@ -2549,10 +2549,10 @@
         <v>0.08731276108070297</v>
       </c>
       <c r="G64" t="n">
-        <v>0.08399827434894504</v>
+        <v>0.08599791136585003</v>
       </c>
       <c r="H64" t="n">
-        <v>-3.796108026745787</v>
+        <v>-1.505907840478937</v>
       </c>
       <c r="I64" t="inlineStr"/>
     </row>
@@ -2582,10 +2582,10 @@
         <v>0.0862402470971773</v>
       </c>
       <c r="G65" t="n">
-        <v>0.08307516531308795</v>
+        <v>0.08273500285556765</v>
       </c>
       <c r="H65" t="n">
-        <v>-3.670075041091741</v>
+        <v>-4.064510897864047</v>
       </c>
       <c r="I65" t="inlineStr"/>
     </row>
@@ -2615,10 +2615,10 @@
         <v>0.02139393255741548</v>
       </c>
       <c r="G66" t="n">
-        <v>0.01659186125259275</v>
+        <v>0.01842997100175067</v>
       </c>
       <c r="H66" t="n">
-        <v>-22.44594953235118</v>
+        <v>-13.85421566470001</v>
       </c>
       <c r="I66" t="inlineStr"/>
     </row>
@@ -2648,10 +2648,10 @@
         <v>0.0209864019911485</v>
       </c>
       <c r="G67" t="n">
-        <v>0.01941002323524261</v>
+        <v>0.02206636489782694</v>
       </c>
       <c r="H67" t="n">
-        <v>-7.511429336818974</v>
+        <v>5.146012675893373</v>
       </c>
       <c r="I67" t="inlineStr"/>
     </row>
@@ -2681,10 +2681,10 @@
         <v>0.0002099060747878827</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.004638578009159338</v>
+        <v>-0.00157505153625709</v>
       </c>
       <c r="H68" t="n">
-        <v>-2309.835048293281</v>
+        <v>-850.3601493423826</v>
       </c>
       <c r="I68" t="inlineStr"/>
     </row>
@@ -2714,10 +2714,10 @@
         <v>0.002403795222242257</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.0001421816739372089</v>
+        <v>-0.002768194262493757</v>
       </c>
       <c r="H69" t="n">
-        <v>-105.9148829576499</v>
+        <v>-215.1593212632975</v>
       </c>
       <c r="I69" t="inlineStr"/>
     </row>
@@ -2747,10 +2747,10 @@
         <v>-0.06800970974818013</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.07728605460915124</v>
+        <v>-0.07603701838849668</v>
       </c>
       <c r="H70" t="n">
-        <v>-13.63973599551986</v>
+        <v>-11.80318026652268</v>
       </c>
       <c r="I70" t="inlineStr"/>
     </row>
@@ -2780,10 +2780,10 @@
         <v>-0.07493390691371363</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.07273916691587323</v>
+        <v>-0.06861422462000953</v>
       </c>
       <c r="H71" t="n">
-        <v>2.928901065264937</v>
+        <v>8.433675159872831</v>
       </c>
       <c r="I71" t="inlineStr"/>
     </row>
@@ -2813,10 +2813,10 @@
         <v>0.04705509918424316</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04993476447201481</v>
+        <v>0.0516671436684339</v>
       </c>
       <c r="H72" t="n">
-        <v>6.119773069644136</v>
+        <v>9.80137023223006</v>
       </c>
       <c r="I72" t="inlineStr"/>
     </row>
@@ -2846,10 +2846,10 @@
         <v>0.05135734494488805</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04758604340590442</v>
+        <v>0.04863062480015639</v>
       </c>
       <c r="H73" t="n">
-        <v>-7.343256437868114</v>
+        <v>-5.309309014431573</v>
       </c>
       <c r="I73" t="inlineStr"/>
     </row>
@@ -2879,10 +2879,10 @@
         <v>0.04317079645533341</v>
       </c>
       <c r="G74" t="n">
-        <v>0.04906535009964123</v>
+        <v>0.05458024437356521</v>
       </c>
       <c r="H74" t="n">
-        <v>13.65403033600878</v>
+        <v>26.4286250313602</v>
       </c>
       <c r="I74" t="inlineStr"/>
     </row>
@@ -2912,10 +2912,10 @@
         <v>0.04545429362859869</v>
       </c>
       <c r="G75" t="n">
-        <v>0.05042294595863966</v>
+        <v>0.05292133710639783</v>
       </c>
       <c r="H75" t="n">
-        <v>10.93109568622758</v>
+        <v>16.42758666279453</v>
       </c>
       <c r="I75" t="inlineStr"/>
     </row>
@@ -2945,10 +2945,10 @@
         <v>0.03098560570893229</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02583671849063812</v>
+        <v>0.02791062638641081</v>
       </c>
       <c r="H76" t="n">
-        <v>-16.61702942540797</v>
+        <v>-9.923896119400528</v>
       </c>
       <c r="I76" t="inlineStr"/>
     </row>
@@ -2978,10 +2978,10 @@
         <v>0.02938276534215063</v>
       </c>
       <c r="G77" t="n">
-        <v>0.03377297546532437</v>
+        <v>0.02763001561703625</v>
       </c>
       <c r="H77" t="n">
-        <v>14.94144636167322</v>
+        <v>-5.965230653766946</v>
       </c>
       <c r="I77" t="inlineStr"/>
     </row>
@@ -3011,10 +3011,10 @@
         <v>0.03446971281615122</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03236705905197563</v>
+        <v>0.03084317474208753</v>
       </c>
       <c r="H78" t="n">
-        <v>-6.100003720339581</v>
+        <v>-10.52094078475882</v>
       </c>
       <c r="I78" t="inlineStr"/>
     </row>
@@ -3044,10 +3044,10 @@
         <v>0.03210438352746564</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02846822283949482</v>
+        <v>0.03785568069308094</v>
       </c>
       <c r="H79" t="n">
-        <v>-11.3260567201362</v>
+        <v>17.91436724114327</v>
       </c>
       <c r="I79" t="inlineStr"/>
     </row>
@@ -3077,10 +3077,10 @@
         <v>0.02946645069203743</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03176612071124274</v>
+        <v>0.03391545996255194</v>
       </c>
       <c r="H80" t="n">
-        <v>7.804367221691683</v>
+        <v>15.09855841483056</v>
       </c>
       <c r="I80" t="inlineStr"/>
     </row>
@@ -3110,10 +3110,10 @@
         <v>0.03483623078952545</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03895162587677866</v>
+        <v>0.03460722237320772</v>
       </c>
       <c r="H81" t="n">
-        <v>11.81354869336389</v>
+        <v>-0.6573857479052652</v>
       </c>
       <c r="I81" t="inlineStr"/>
     </row>
@@ -3143,10 +3143,10 @@
         <v>0.04915099280235283</v>
       </c>
       <c r="G82" t="n">
-        <v>0.05526176760404333</v>
+        <v>0.05632184294854729</v>
       </c>
       <c r="H82" t="n">
-        <v>12.43265792465943</v>
+        <v>14.58943092976792</v>
       </c>
       <c r="I82" t="inlineStr"/>
     </row>
@@ -3176,10 +3176,10 @@
         <v>0.05158573348780684</v>
       </c>
       <c r="G83" t="n">
-        <v>0.05165034530822814</v>
+        <v>0.04768079941120492</v>
       </c>
       <c r="H83" t="n">
-        <v>0.125251336082236</v>
+        <v>-7.569794616809927</v>
       </c>
       <c r="I83" t="inlineStr"/>
     </row>
@@ -3209,10 +3209,10 @@
         <v>0.03674808205395363</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03930369382144462</v>
+        <v>0.03674077214363768</v>
       </c>
       <c r="H84" t="n">
-        <v>6.954408569510752</v>
+        <v>-0.01989195056550763</v>
       </c>
       <c r="I84" t="inlineStr"/>
     </row>
@@ -3242,10 +3242,10 @@
         <v>0.0325927857683894</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03365601539311616</v>
+        <v>0.03588953024059406</v>
       </c>
       <c r="H85" t="n">
-        <v>3.262162468351973</v>
+        <v>10.11495149764724</v>
       </c>
       <c r="I85" t="inlineStr"/>
     </row>
@@ -3275,10 +3275,10 @@
         <v>0.02684374630159742</v>
       </c>
       <c r="G86" t="n">
-        <v>0.03158398377032351</v>
+        <v>0.02964468255159328</v>
       </c>
       <c r="H86" t="n">
-        <v>17.65862862607969</v>
+        <v>10.43422262498876</v>
       </c>
       <c r="I86" t="inlineStr"/>
     </row>
@@ -3308,10 +3308,10 @@
         <v>0.03362548835019527</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03597895301102305</v>
+        <v>0.03469532314555301</v>
       </c>
       <c r="H87" t="n">
-        <v>6.999049757485869</v>
+        <v>3.181618610905688</v>
       </c>
       <c r="I87" t="inlineStr"/>
     </row>
@@ -3341,10 +3341,10 @@
         <v>0.0556764454163631</v>
       </c>
       <c r="G88" t="n">
-        <v>0.05460961137025822</v>
+        <v>0.05997714341896519</v>
       </c>
       <c r="H88" t="n">
-        <v>-1.916131746785942</v>
+        <v>7.724447870980879</v>
       </c>
       <c r="I88" t="inlineStr"/>
     </row>
@@ -3374,10 +3374,10 @@
         <v>0.05379100486134444</v>
       </c>
       <c r="G89" t="n">
-        <v>0.0526690606781917</v>
+        <v>0.05799580338698452</v>
       </c>
       <c r="H89" t="n">
-        <v>-2.085746838239479</v>
+        <v>7.816917598915793</v>
       </c>
       <c r="I89" t="inlineStr"/>
     </row>
@@ -3407,10 +3407,10 @@
         <v>-0.02393890867148892</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.02497486695940706</v>
+        <v>-0.02472858774034</v>
       </c>
       <c r="H90" t="n">
-        <v>-4.327508417925334</v>
+        <v>-3.298726268969751</v>
       </c>
       <c r="I90" t="inlineStr"/>
     </row>
@@ -3440,10 +3440,10 @@
         <v>-0.02071924697958748</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.01948800514961873</v>
+        <v>-0.01652143454847221</v>
       </c>
       <c r="H91" t="n">
-        <v>5.94250279067461</v>
+        <v>20.26044882447194</v>
       </c>
       <c r="I91" t="inlineStr"/>
     </row>
@@ -3473,10 +3473,10 @@
         <v>0.03963729108941371</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04336013019644817</v>
+        <v>0.03969903358035626</v>
       </c>
       <c r="H92" t="n">
-        <v>9.392264215625847</v>
+        <v>0.155768694695277</v>
       </c>
       <c r="I92" t="inlineStr"/>
     </row>
@@ -3506,10 +3506,10 @@
         <v>0.04830041776286424</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04503648892031115</v>
+        <v>0.04184218480333607</v>
       </c>
       <c r="H93" t="n">
-        <v>-6.757558202866227</v>
+        <v>-13.37096708197332</v>
       </c>
       <c r="I93" t="inlineStr"/>
     </row>
@@ -3539,10 +3539,10 @@
         <v>0.04450335749651464</v>
       </c>
       <c r="G94" t="n">
-        <v>0.05252572053206531</v>
+        <v>0.05061812290430297</v>
       </c>
       <c r="H94" t="n">
-        <v>18.02642202035871</v>
+        <v>13.74000918530071</v>
       </c>
       <c r="I94" t="inlineStr"/>
     </row>
@@ -3572,10 +3572,10 @@
         <v>0.04477146600756626</v>
       </c>
       <c r="G95" t="n">
-        <v>0.05423293707367843</v>
+        <v>0.05172613353929367</v>
       </c>
       <c r="H95" t="n">
-        <v>21.13281495967366</v>
+        <v>15.53370517407692</v>
       </c>
       <c r="I95" t="inlineStr"/>
     </row>
@@ -3605,10 +3605,10 @@
         <v>-0.146963195107255</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.1415155717149065</v>
+        <v>-0.1449452976435855</v>
       </c>
       <c r="H96" t="n">
-        <v>3.706794336073584</v>
+        <v>1.373063141555157</v>
       </c>
       <c r="I96" t="inlineStr"/>
     </row>
@@ -3638,10 +3638,10 @@
         <v>-0.150817549107657</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.150674980530574</v>
+        <v>-0.1449358351956761</v>
       </c>
       <c r="H97" t="n">
-        <v>0.09453049590484552</v>
+        <v>3.899886947362067</v>
       </c>
       <c r="I97" t="inlineStr"/>
     </row>
@@ -3671,10 +3671,10 @@
         <v>0.1423101300395017</v>
       </c>
       <c r="G98" t="n">
-        <v>0.1451387111994629</v>
+        <v>0.141447832228817</v>
       </c>
       <c r="H98" t="n">
-        <v>1.987617578015047</v>
+        <v>-0.6059286225410278</v>
       </c>
       <c r="I98" t="inlineStr"/>
     </row>
@@ -3704,10 +3704,10 @@
         <v>0.1470608929146514</v>
       </c>
       <c r="G99" t="n">
-        <v>0.1423844842890841</v>
+        <v>0.1470652792115093</v>
       </c>
       <c r="H99" t="n">
-        <v>-3.179913118221936</v>
+        <v>0.00298263989219767</v>
       </c>
       <c r="I99" t="inlineStr"/>
     </row>
@@ -3737,10 +3737,10 @@
         <v>0.02325180968686057</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02740247866848128</v>
+        <v>0.02361995391805154</v>
       </c>
       <c r="H100" t="n">
-        <v>17.85095025943819</v>
+        <v>1.583292810963465</v>
       </c>
       <c r="I100" t="inlineStr"/>
     </row>
@@ -3770,10 +3770,10 @@
         <v>0.0273166824388394</v>
       </c>
       <c r="G101" t="n">
-        <v>0.02655478682349716</v>
+        <v>0.0269904037565415</v>
       </c>
       <c r="H101" t="n">
-        <v>-2.789122057731881</v>
+        <v>-1.194430118036559</v>
       </c>
       <c r="I101" t="inlineStr"/>
     </row>
@@ -3803,10 +3803,10 @@
         <v>-0.007741144401112737</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.01549448638036584</v>
+        <v>-0.01065988518190715</v>
       </c>
       <c r="H102" t="n">
-        <v>-100.1575681515334</v>
+        <v>-37.70425443006675</v>
       </c>
       <c r="I102" t="inlineStr"/>
     </row>
@@ -3836,10 +3836,10 @@
         <v>-0.00766063640908223</v>
       </c>
       <c r="G103" t="n">
-        <v>-0.01268688070772121</v>
+        <v>-0.01344052501146716</v>
       </c>
       <c r="H103" t="n">
-        <v>-65.61131517324084</v>
+        <v>-75.44919630348807</v>
       </c>
       <c r="I103" t="inlineStr"/>
     </row>
@@ -3869,10 +3869,10 @@
         <v>0.0727885622270989</v>
       </c>
       <c r="G104" t="n">
-        <v>0.07536923159281808</v>
+        <v>0.07792205887919713</v>
       </c>
       <c r="H104" t="n">
-        <v>3.545432533297672</v>
+        <v>7.052614442474943</v>
       </c>
       <c r="I104" t="inlineStr"/>
     </row>
@@ -3902,10 +3902,10 @@
         <v>0.07478882140984003</v>
       </c>
       <c r="G105" t="n">
-        <v>0.07473330653502937</v>
+        <v>0.07650059066766042</v>
       </c>
       <c r="H105" t="n">
-        <v>-0.07422884030548024</v>
+        <v>2.288803628071578</v>
       </c>
       <c r="I105" t="inlineStr"/>
     </row>
@@ -3935,10 +3935,10 @@
         <v>-0.3466071028434384</v>
       </c>
       <c r="G106" t="n">
-        <v>-0.3662094374891678</v>
+        <v>-0.368234092154368</v>
       </c>
       <c r="H106" t="n">
-        <v>-5.655491328630891</v>
+        <v>-6.239626693599081</v>
       </c>
       <c r="I106" t="inlineStr"/>
     </row>
@@ -3968,10 +3968,10 @@
         <v>-0.3762531854192955</v>
       </c>
       <c r="G107" t="n">
-        <v>-0.3579273023664822</v>
+        <v>-0.3562837816604666</v>
       </c>
       <c r="H107" t="n">
-        <v>4.870625356271996</v>
+        <v>5.307437792606337</v>
       </c>
       <c r="I107" t="inlineStr"/>
     </row>
@@ -4001,10 +4001,10 @@
         <v>0.2249197822222643</v>
       </c>
       <c r="G108" t="n">
-        <v>0.2335107169605906</v>
+        <v>0.2294505988062931</v>
       </c>
       <c r="H108" t="n">
-        <v>3.819554977977338</v>
+        <v>2.014414445569517</v>
       </c>
       <c r="I108" t="inlineStr"/>
     </row>
@@ -4034,10 +4034,10 @@
         <v>0.2226452381003289</v>
       </c>
       <c r="G109" t="n">
-        <v>0.236489572930413</v>
+        <v>0.2227371276331996</v>
       </c>
       <c r="H109" t="n">
-        <v>6.218114049151832</v>
+        <v>0.04127172611223609</v>
       </c>
       <c r="I109" t="inlineStr"/>
     </row>
@@ -4067,10 +4067,10 @@
         <v>0.05862760492876468</v>
       </c>
       <c r="G110" t="n">
-        <v>0.06122458504279254</v>
+        <v>0.06098640287893337</v>
       </c>
       <c r="H110" t="n">
-        <v>4.429620000993234</v>
+        <v>4.023357176256375</v>
       </c>
       <c r="I110" t="inlineStr"/>
     </row>
@@ -4100,10 +4100,10 @@
         <v>0.05744215554139705</v>
       </c>
       <c r="G111" t="n">
-        <v>0.06433743086467067</v>
+        <v>0.07113376221495193</v>
       </c>
       <c r="H111" t="n">
-        <v>12.00385893998072</v>
+        <v>23.83546812355902</v>
       </c>
       <c r="I111" t="inlineStr"/>
     </row>
@@ -4133,10 +4133,10 @@
         <v>0.1283068976581735</v>
       </c>
       <c r="G112" t="n">
-        <v>0.1303284680495016</v>
+        <v>0.1346067175590737</v>
       </c>
       <c r="H112" t="n">
-        <v>1.575574211695025</v>
+        <v>4.909961986364717</v>
       </c>
       <c r="I112" t="inlineStr"/>
     </row>
@@ -4166,14 +4166,14 @@
         <v>0.1309363224202389</v>
       </c>
       <c r="G113" t="n">
-        <v>0.1337706066293499</v>
+        <v>0.1368258705618613</v>
       </c>
       <c r="H113" t="n">
-        <v>2.164627932663628</v>
+        <v>4.498024713661923</v>
       </c>
       <c r="I113" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>